--- a/assets/translate_prompt.xlsx
+++ b/assets/translate_prompt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>VI</t>
-  </si>
-  <si>
-    <t>acc</t>
   </si>
   <si>
     <t>Bạn là một biên tập viên văn học đầy kinh nghiệm, chuyên xử lý và nâng cao chất lượng các light novel Nhật Bản sang tiếng Việt. 
@@ -104,9 +101,6 @@
 {text}</t>
   </si>
   <si>
-    <t>loose</t>
-  </si>
-  <si>
     <t>Bạn là một biên tập viên văn học đầy kinh nghiệm, chuyên xử lý và nâng cao chất lượng các light novel Nhật Bản sang tiếng Việt. 
 Hãy chuyển ngữ văn bản sau đây từ tiếng Trung sang tiếng Việt với văn phong hấp dẫn, mượt mà và giàu cảm xúc. 
 {count_info} 
@@ -243,9 +237,6 @@
 Vẫn giữ định dạng đánh số và cấu trúc đoạn văn như bản gốc (1., 2., ...)
 Đây là văn bản cần chuyển ngữ:
 {text}</t>
-  </si>
-  <si>
-    <t>cho bộ ORV từ tiếng Trung</t>
   </si>
   <si>
     <t>You are a master literary translator and accomplished author with decades of experience in both Vietnamese and English literature. Your translations read as if originally written by a native English-speaking novelist.
@@ -272,6 +263,15 @@
   </si>
   <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>JP_acc</t>
+  </si>
+  <si>
+    <t>JP_loose</t>
+  </si>
+  <si>
+    <t>KR_loose</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,57 +699,57 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -757,29 +757,29 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -789,29 +789,27 @@
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5"/>
     </row>

--- a/assets/translate_prompt.xlsx
+++ b/assets/translate_prompt.xlsx
@@ -39,6 +39,12 @@
     <t>VI</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
     <t>Bạn là một biên tập viên văn học đầy kinh nghiệm, chuyên xử lý và nâng cao chất lượng các light novel Nhật Bản sang tiếng Việt. 
 Hãy chuyển ngữ văn bản sau đây từ tiếng Trung sang tiếng Việt với độ chính xác cao, giữ gần nhất có thể với văn phong và cấu trúc nguyên gốc. 
 {count_info} 
@@ -101,6 +107,9 @@
 {text}</t>
   </si>
   <si>
+    <t>loose</t>
+  </si>
+  <si>
     <t>Bạn là một biên tập viên văn học đầy kinh nghiệm, chuyên xử lý và nâng cao chất lượng các light novel Nhật Bản sang tiếng Việt. 
 Hãy chuyển ngữ văn bản sau đây từ tiếng Trung sang tiếng Việt với văn phong hấp dẫn, mượt mà và giàu cảm xúc. 
 {count_info} 
@@ -214,6 +223,9 @@
 {text}</t>
   </si>
   <si>
+    <t>KR_loose</t>
+  </si>
+  <si>
     <t>Bạn là một biên tập viên văn học đầy kinh nghiệm, chuyên xử lý và nâng cao chất lượng các tác phẩm văn học từ tiếng Trung sang tiếng Việt, đặc biệt là với các tác phẩm gốc Hàn Quốc đã được dịch sang tiếng Trung. 
 Hãy chuyển ngữ văn bản sau đây từ tiếng Trung sang tiếng Việt với văn phong hấp dẫn, mượt mà và giàu cảm xúc, nhưng vẫn đảm bảo tính chính xác của nội dung gốc. 
 {count_info} 
@@ -237,6 +249,9 @@
 Vẫn giữ định dạng đánh số và cấu trúc đoạn văn như bản gốc (1., 2., ...)
 Đây là văn bản cần chuyển ngữ:
 {text}</t>
+  </si>
+  <si>
+    <t>Custom</t>
   </si>
   <si>
     <t>You are a master literary translator and accomplished author with decades of experience in both Vietnamese and English literature. Your translations read as if originally written by a native English-speaking novelist.
@@ -257,21 +272,6 @@
 Your goal is to create a translation so polished and engaging that readers forget they're reading a translated work. Make every sentence sing in English while honoring the Vietnamese original.
 Here is the text to transform:
 {text}</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>JP_acc</t>
-  </si>
-  <si>
-    <t>JP_loose</t>
-  </si>
-  <si>
-    <t>KR_loose</t>
   </si>
 </sst>
 </file>
@@ -292,24 +292,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -339,25 +327,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,157 +637,121 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/translate_prompt.xlsx
+++ b/assets/translate_prompt.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\AI_Translation_Bridge\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>type</t>
   </si>
@@ -56,15 +61,6 @@
   </si>
   <si>
     <t>Custom</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
   </si>
   <si>
     <t xml:space="preserve">Bạn là một biên tập viên văn học đầy kinh nghiệm, chuyên xử lý và nâng cao chất lượng các light novel Nhật Bản sang tiếng Việt. 
@@ -130,12 +126,6 @@
 Đối với tên nhân vật, hãy chuyển sang phát âm tiếng Nhật, trừ những tên tiếng Anh hoặc ngôn ngữ phổ biến khác thì giữ nguyên. 
 Bạn có thể điều chỉnh cấu trúc câu để tạo nhịp điệu đọc tốt hơn, miễn là không làm mất ý nghĩa gốc.
 Hãy sử dụng ngôn từ phong phú, tránh lặp từ và cố gắng truyền tải cảm xúc trong văn bản.</t>
-  </si>
-  <si>
-    <t>ggggaaaffaafattrr</t>
-  </si>
-  <si>
-    <t>bbbxxx</t>
   </si>
   <si>
     <t xml:space="preserve">Bạn là một biên tập viên văn học đầy kinh nghiệm, chuyên xử lý và dịch thuật các tác phẩm văn học tiếng Anh sang tiếng Việt. 
@@ -241,15 +231,12 @@
   <si>
     <t>Custom Prompt</t>
   </si>
-  <si>
-    <t>a</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +299,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -358,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,9 +385,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,6 +420,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,14 +596,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,141 +628,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
